--- a/Oscars 2011.xlsx
+++ b/Oscars 2011.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Papa-Arjun</t>
   </si>
@@ -38,13 +38,16 @@
   <si>
     <t>Sujay-Arjun</t>
   </si>
+  <si>
+    <t>sasd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -95,7 +98,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -712,7 +715,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -720,7 +723,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -728,15 +731,18 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -744,7 +750,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -752,33 +758,33 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <f>SUM(A2:A14)</f>
+        <f t="shared" ref="A22:F22" si="0">SUM(A2:A14)</f>
         <v>12.666666666666664</v>
       </c>
       <c r="B22" s="1">
-        <f>SUM(B2:B14)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <f>SUM(C2:C14)</f>
+        <f t="shared" si="0"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="D22" s="1">
-        <f>SUM(D2:D14)</f>
+        <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
       <c r="E22" s="1">
-        <f>SUM(E2:E14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F22" s="1">
-        <f>SUM(F2:F14)</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -786,7 +792,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -794,7 +800,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -802,7 +808,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -810,7 +816,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -818,7 +824,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -826,7 +832,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -834,7 +840,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -842,7 +848,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -850,7 +856,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -860,7 +866,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
